--- a/Synthèse Epreuve E5 2025.xlsx
+++ b/Synthèse Epreuve E5 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishfa\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishfa\OneDrive\Bureau\SIO\Portfolio\MyResume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178AF183-DD45-4D9A-A41E-CF08115AC795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A5B72-E023-4C48-B7E0-AC45B02B8736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Création d'un site pour une entreprise</t>
   </si>
   <si>
-    <t>Tp java</t>
-  </si>
-  <si>
     <t>Projet Veliko web</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>X SLAM</t>
+  </si>
+  <si>
+    <t>Création d'une application pour une entreprise</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -718,15 +718,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,29 +784,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,7 +1098,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="58" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1108,56 +1111,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1165,26 +1168,26 @@
         <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1207,8 +1210,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
@@ -1264,16 +1267,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>27</v>
@@ -1471,18 +1474,20 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1521,9 +1526,7 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="27"/>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1793,16 +1796,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1892,10 +1895,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2162,16 +2173,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2616,11 +2627,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2628,6 +2634,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
